--- a/biology/Zoologie/Hirondelle_des_torrents/Hirondelle_des_torrents.xlsx
+++ b/biology/Zoologie/Hirondelle_des_torrents/Hirondelle_des_torrents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pygochelidon melanoleuca
 L'Hirondelle des torrents (Pygochelidon melanoleuca) est une espèce de passereau de la famille des Hirundinidae. Son aire de répartition s'étend sur la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, le Brésil, l'Équateur, le Pérou, la Bolivie, le Paraguay et Argentine.
